--- a/chemin vue.xlsx
+++ b/chemin vue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil-mvc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\vetotoil_mvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Controller physique</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>view_acces_inscription_pro.php</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>view_contact.php</t>
+  </si>
+  <si>
+    <t>acces_inscription_valider</t>
+  </si>
+  <si>
+    <t>ficheUsers</t>
+  </si>
+  <si>
+    <t>ficheUsers.php</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:F14"/>
+  <dimension ref="A6:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +526,16 @@
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -524,42 +545,69 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
